--- a/material/frecuencias.xlsx
+++ b/material/frecuencias.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t xml:space="preserve">Frecuencia </t>
   </si>
@@ -143,6 +143,12 @@
     <t xml:space="preserve">Xi² *fi</t>
   </si>
   <si>
+    <t xml:space="preserve">(xi-media)³ fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(xi-media)⁴ fi</t>
+  </si>
+  <si>
     <t xml:space="preserve">media</t>
   </si>
   <si>
@@ -162,17 +168,32 @@
   </si>
   <si>
     <t xml:space="preserve">CV%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asimetría</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asimétrico negativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurtosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platicúrtica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0.00\ %"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.00\ %"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -258,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -320,6 +341,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -402,11 +439,11 @@
   </sheetPr>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.52"/>
@@ -1176,16 +1213,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,6 +1263,12 @@
       <c r="H3" s="10" t="s">
         <v>39</v>
       </c>
+      <c r="I3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -1242,7 +1285,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="10" t="n">
-        <f aca="false">+B4-$K$4</f>
+        <f aca="false">+B4-$M$4</f>
         <v>-13.05</v>
       </c>
       <c r="F4" s="10" t="n">
@@ -1257,10 +1300,18 @@
         <f aca="false">+(B4^2)*C4</f>
         <v>36</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="14" t="n">
+      <c r="I4" s="10" t="n">
+        <f aca="false">+(E4^3)*C4</f>
+        <v>-2222.447625</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <f aca="false">+(E4^4)*C4</f>
+        <v>29002.94150625</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="14" t="n">
         <f aca="false">+D18/C18</f>
         <v>19.05</v>
       </c>
@@ -1280,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="10" t="n">
-        <f aca="false">+B5-$K$4</f>
+        <f aca="false">+B5-$M$4</f>
         <v>-11.05</v>
       </c>
       <c r="F5" s="10" t="n">
@@ -1295,10 +1346,18 @@
         <f aca="false">+(B5^2)*C5</f>
         <v>64</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="14" t="n">
+      <c r="I5" s="10" t="n">
+        <f aca="false">+(E5^3)*C5</f>
+        <v>-1349.232625</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <f aca="false">+(E5^4)*C5</f>
+        <v>14909.02050625</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="14" t="n">
         <f aca="false">+B17-B4</f>
         <v>24</v>
       </c>
@@ -1318,7 +1377,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="10" t="n">
-        <f aca="false">+B6-$K$4</f>
+        <f aca="false">+B6-$M$4</f>
         <v>-8.05</v>
       </c>
       <c r="F6" s="10" t="n">
@@ -1333,10 +1392,18 @@
         <f aca="false">+(B6^2)*C6</f>
         <v>121</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="14" t="n">
+      <c r="I6" s="10" t="n">
+        <f aca="false">+(E6^3)*C6</f>
+        <v>-521.660125</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <f aca="false">+(E6^4)*C6</f>
+        <v>4199.36400625</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="14" t="n">
         <f aca="false">+G18/C18</f>
         <v>5.95</v>
       </c>
@@ -1356,7 +1423,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="10" t="n">
-        <f aca="false">+B7-$K$4</f>
+        <f aca="false">+B7-$M$4</f>
         <v>-7.05</v>
       </c>
       <c r="F7" s="10" t="n">
@@ -1371,11 +1438,19 @@
         <f aca="false">+(B7^2)*C7</f>
         <v>288</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="14" t="n">
-        <f aca="false">+H18/C18-K4^2</f>
+      <c r="I7" s="10" t="n">
+        <f aca="false">+(E7^3)*C7</f>
+        <v>-700.80525</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <f aca="false">+(E7^4)*C7</f>
+        <v>4940.6770125</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="14" t="n">
+        <f aca="false">+H18/C18-M4^2</f>
         <v>48.7474999999999</v>
       </c>
     </row>
@@ -1394,7 +1469,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="10" t="n">
-        <f aca="false">+B8-$K$4</f>
+        <f aca="false">+B8-$M$4</f>
         <v>-6.05</v>
       </c>
       <c r="F8" s="10" t="n">
@@ -1409,11 +1484,19 @@
         <f aca="false">+(B8^2)*C8</f>
         <v>169</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="14" t="n">
-        <f aca="false">+SQRT(K7)</f>
+      <c r="I8" s="10" t="n">
+        <f aca="false">+(E8^3)*C8</f>
+        <v>-221.445125</v>
+      </c>
+      <c r="J8" s="10" t="n">
+        <f aca="false">+(E8^4)*C8</f>
+        <v>1339.74300625</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="14" t="n">
+        <f aca="false">+SQRT(M7)</f>
         <v>6.98194099087066</v>
       </c>
     </row>
@@ -1432,7 +1515,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="10" t="n">
-        <f aca="false">+B9-$K$4</f>
+        <f aca="false">+B9-$M$4</f>
         <v>-5.05</v>
       </c>
       <c r="F9" s="10" t="n">
@@ -1447,11 +1530,19 @@
         <f aca="false">+(B9^2)*C9</f>
         <v>196</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="14" t="n">
-        <f aca="false">+K8/K4</f>
+      <c r="I9" s="10" t="n">
+        <f aca="false">+(E9^3)*C9</f>
+        <v>-128.787625</v>
+      </c>
+      <c r="J9" s="10" t="n">
+        <f aca="false">+(E9^4)*C9</f>
+        <v>650.37750625</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="14" t="n">
+        <f aca="false">+M8/M4</f>
         <v>0.366506088759615</v>
       </c>
     </row>
@@ -1470,7 +1561,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="10" t="n">
-        <f aca="false">+B10-$K$4</f>
+        <f aca="false">+B10-$M$4</f>
         <v>-2.05</v>
       </c>
       <c r="F10" s="10" t="n">
@@ -1485,11 +1576,19 @@
         <f aca="false">+(B10^2)*C10</f>
         <v>289</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="15" t="n">
-        <f aca="false">+K9</f>
+      <c r="I10" s="10" t="n">
+        <f aca="false">+(E10^3)*C10</f>
+        <v>-8.615125</v>
+      </c>
+      <c r="J10" s="10" t="n">
+        <f aca="false">+(E10^4)*C10</f>
+        <v>17.66100625</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="15" t="n">
+        <f aca="false">+M9</f>
         <v>0.366506088759615</v>
       </c>
     </row>
@@ -1508,7 +1607,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="10" t="n">
-        <f aca="false">+B11-$K$4</f>
+        <f aca="false">+B11-$M$4</f>
         <v>-0.0500000000000007</v>
       </c>
       <c r="F11" s="10" t="n">
@@ -1523,6 +1622,24 @@
         <f aca="false">+(B11^2)*C11</f>
         <v>722</v>
       </c>
+      <c r="I11" s="10" t="n">
+        <f aca="false">+(E11^3)*C11</f>
+        <v>-0.00025000000000001</v>
+      </c>
+      <c r="J11" s="10" t="n">
+        <f aca="false">+(E11^4)*C11</f>
+        <v>1.25000000000007E-005</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="16" t="n">
+        <f aca="false">+I18/(C18*M8^3)</f>
+        <v>-0.184403849358067</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -1539,7 +1656,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="10" t="n">
-        <f aca="false">+B12-$K$4</f>
+        <f aca="false">+B12-$M$4</f>
         <v>1.95</v>
       </c>
       <c r="F12" s="10" t="n">
@@ -1554,6 +1671,24 @@
         <f aca="false">+(B12^2)*C12</f>
         <v>441</v>
       </c>
+      <c r="I12" s="10" t="n">
+        <f aca="false">+(E12^3)*C12</f>
+        <v>7.414875</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <f aca="false">+(E12^4)*C12</f>
+        <v>14.45900625</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="16" t="n">
+        <f aca="false">+(J18/(C18*M8^4))-3</f>
+        <v>-1.09067229751198</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -1570,7 +1705,7 @@
         <v>66</v>
       </c>
       <c r="E13" s="10" t="n">
-        <f aca="false">+B13-$K$4</f>
+        <f aca="false">+B13-$M$4</f>
         <v>2.95</v>
       </c>
       <c r="F13" s="10" t="n">
@@ -1585,6 +1720,14 @@
         <f aca="false">+(B13^2)*C13</f>
         <v>1452</v>
       </c>
+      <c r="I13" s="10" t="n">
+        <f aca="false">+(E13^3)*C13</f>
+        <v>77.017125</v>
+      </c>
+      <c r="J13" s="10" t="n">
+        <f aca="false">+(E13^4)*C13</f>
+        <v>227.20051875</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -1601,7 +1744,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="10" t="n">
-        <f aca="false">+B14-$K$4</f>
+        <f aca="false">+B14-$M$4</f>
         <v>3.95</v>
       </c>
       <c r="F14" s="10" t="n">
@@ -1616,6 +1759,14 @@
         <f aca="false">+(B14^2)*C14</f>
         <v>529</v>
       </c>
+      <c r="I14" s="10" t="n">
+        <f aca="false">+(E14^3)*C14</f>
+        <v>61.629875</v>
+      </c>
+      <c r="J14" s="10" t="n">
+        <f aca="false">+(E14^4)*C14</f>
+        <v>243.43800625</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -1632,7 +1783,7 @@
         <v>54</v>
       </c>
       <c r="E15" s="10" t="n">
-        <f aca="false">+B15-$K$4</f>
+        <f aca="false">+B15-$M$4</f>
         <v>7.95</v>
       </c>
       <c r="F15" s="10" t="n">
@@ -1647,6 +1798,14 @@
         <f aca="false">+(B15^2)*C15</f>
         <v>1458</v>
       </c>
+      <c r="I15" s="10" t="n">
+        <f aca="false">+(E15^3)*C15</f>
+        <v>1004.91975</v>
+      </c>
+      <c r="J15" s="10" t="n">
+        <f aca="false">+(E15^4)*C15</f>
+        <v>7989.1120125</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -1663,7 +1822,7 @@
         <v>56</v>
       </c>
       <c r="E16" s="10" t="n">
-        <f aca="false">+B16-$K$4</f>
+        <f aca="false">+B16-$M$4</f>
         <v>8.95</v>
       </c>
       <c r="F16" s="10" t="n">
@@ -1678,6 +1837,14 @@
         <f aca="false">+(B16^2)*C16</f>
         <v>1568</v>
       </c>
+      <c r="I16" s="10" t="n">
+        <f aca="false">+(E16^3)*C16</f>
+        <v>1433.83475</v>
+      </c>
+      <c r="J16" s="10" t="n">
+        <f aca="false">+(E16^4)*C16</f>
+        <v>12832.8210125</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -1694,7 +1861,7 @@
         <v>30</v>
       </c>
       <c r="E17" s="10" t="n">
-        <f aca="false">+B17-$K$4</f>
+        <f aca="false">+B17-$M$4</f>
         <v>10.95</v>
       </c>
       <c r="F17" s="10" t="n">
@@ -1708,6 +1875,14 @@
       <c r="H17" s="10" t="n">
         <f aca="false">+(B17^2)*C17</f>
         <v>900</v>
+      </c>
+      <c r="I17" s="10" t="n">
+        <f aca="false">+(E17^3)*C17</f>
+        <v>1312.932375</v>
+      </c>
+      <c r="J17" s="10" t="n">
+        <f aca="false">+(E17^4)*C17</f>
+        <v>14376.60950625</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,6 +1907,14 @@
         <f aca="false">+SUM(H4:H17)</f>
         <v>8233</v>
       </c>
+      <c r="I18" s="10" t="n">
+        <f aca="false">+SUM(I4:I17)</f>
+        <v>-1255.245</v>
+      </c>
+      <c r="J18" s="10" t="n">
+        <f aca="false">+SUM(J4:J17)</f>
+        <v>90743.424625</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
@@ -1748,10 +1931,13 @@
       <c r="C21" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="17" t="n">
+        <f aca="false">+E26/D26</f>
+        <v>19.2</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -1766,10 +1952,29 @@
       <c r="D22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="L22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="17" t="n">
+        <f aca="false">+30-6</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -1784,10 +1989,34 @@
       <c r="D23" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="10"/>
+      <c r="E23" s="18" t="n">
+        <f aca="false">+D23*C23</f>
+        <v>60</v>
+      </c>
+      <c r="F23" s="18" t="n">
+        <f aca="false">+C23-$M$21</f>
+        <v>-9.2</v>
+      </c>
+      <c r="G23" s="18" t="n">
+        <f aca="false">+ABS(F23)</f>
+        <v>9.2</v>
+      </c>
+      <c r="H23" s="18" t="n">
+        <f aca="false">+G23*D23</f>
+        <v>55.2</v>
+      </c>
+      <c r="I23" s="18" t="n">
+        <f aca="false">+(C23^2)*D23</f>
+        <v>600</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="L23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="17" t="n">
+        <f aca="false">+H26/D26</f>
+        <v>6.12</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
@@ -1802,10 +2031,34 @@
       <c r="D24" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="10"/>
+      <c r="E24" s="18" t="n">
+        <f aca="false">+D24*C24</f>
+        <v>90</v>
+      </c>
+      <c r="F24" s="18" t="n">
+        <f aca="false">+C24-$M$21</f>
+        <v>-1.2</v>
+      </c>
+      <c r="G24" s="18" t="n">
+        <f aca="false">+ABS(F24)</f>
+        <v>1.2</v>
+      </c>
+      <c r="H24" s="18" t="n">
+        <f aca="false">+G24*D24</f>
+        <v>6</v>
+      </c>
+      <c r="I24" s="18" t="n">
+        <f aca="false">+(C24^2)*D24</f>
+        <v>1620</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="L24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="17" t="n">
+        <f aca="false">+I26/D26-M21^2</f>
+        <v>46.56</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -1820,10 +2073,34 @@
       <c r="D25" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="10"/>
+      <c r="E25" s="18" t="n">
+        <f aca="false">+D25*C25</f>
+        <v>234</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <f aca="false">+C25-$M$21</f>
+        <v>6.8</v>
+      </c>
+      <c r="G25" s="18" t="n">
+        <f aca="false">+ABS(F25)</f>
+        <v>6.8</v>
+      </c>
+      <c r="H25" s="18" t="n">
+        <f aca="false">+G25*D25</f>
+        <v>61.2</v>
+      </c>
+      <c r="I25" s="18" t="n">
+        <f aca="false">+(C25^2)*D25</f>
+        <v>6084</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="L25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="17" t="n">
+        <f aca="false">+SQRT(M24)</f>
+        <v>6.82348884369279</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
@@ -1832,16 +2109,49 @@
       <c r="D26" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="10"/>
+      <c r="E26" s="18" t="n">
+        <f aca="false">+SUM(E23:E25)</f>
+        <v>384</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18" t="n">
+        <f aca="false">+SUM(H23:H25)</f>
+        <v>122.4</v>
+      </c>
+      <c r="I26" s="18" t="n">
+        <f aca="false">+SUM(I23:I25)</f>
+        <v>8304</v>
+      </c>
+      <c r="J26" s="18"/>
+      <c r="L26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="17" t="n">
+        <f aca="false">+M25/M21</f>
+        <v>0.355390043942333</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="10"/>
+      <c r="L27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="19" t="n">
+        <f aca="false">+M26</f>
+        <v>0.355390043942333</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
